--- a/result_list_10.xlsx
+++ b/result_list_10.xlsx
@@ -681,13 +681,13 @@
         <v>0.7095294335423197</v>
       </c>
       <c r="O4" t="n">
-        <v>0.6596836597925596</v>
+        <v>0.6596836597925597</v>
       </c>
       <c r="P4" t="n">
         <v>-0.0264154469186495</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.09746010810388772</v>
+        <v>-0.0974601081038875</v>
       </c>
       <c r="R4" t="n">
         <v>0.6440218132231057</v>
